--- a/Data_frame/balancos_definitivos/DUQE3.xlsx
+++ b/Data_frame/balancos_definitivos/DUQE3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ80"/>
+  <dimension ref="A1:AQ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,181 +649,6 @@
           <t>30/09/2014</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2015</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2015</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2015</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2016</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2016</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2016</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2017</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2017</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2017</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2018</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2018</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2018</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2019</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2019</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2019</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2020</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2020</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2020</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2021</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2021</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2021</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2022</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2022</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -957,111 +782,6 @@
       <c r="AQ2" t="n">
         <v>184131.008</v>
       </c>
-      <c r="AR2" t="n">
-        <v>624489.9840000001</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>643374.976</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>633000</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>641238.0159999999</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>644251.008</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>653176</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>651881.024</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>659352</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>641824</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>651996.032</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>661446.0159999999</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>676048</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>672916.992</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>679190.0159999999</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>692318.0159999999</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>742401.9840000001</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>725649.9840000001</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>718457.024</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>720990.0159999999</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>736848</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>742110.976</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>742190.0159999999</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>740905.024</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>765980.992</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>869072</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>894908.992</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>882604.032</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>923705.9840000001</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>923422.0159999999</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>962990.976</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>950940.992</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>967313.9840000001</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>970457.9840000001</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>984462.0159999999</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>963446.0159999999</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1195,111 +915,6 @@
       <c r="AQ3" t="n">
         <v>52437</v>
       </c>
-      <c r="AR3" t="n">
-        <v>292375.008</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>310852</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>293223.008</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>296260.992</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>301089.984</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>310529.984</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>308689.984</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>316936.992</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>299558.016</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>309687.008</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>316504</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>330632.992</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>328444.992</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>328992.992</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>334796</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>368102.016</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>349672</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>344975.008</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>347668</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>362419.008</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>345303.008</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>349415.008</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>348356</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>374088</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>467452</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>487044.992</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>473256.992</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>495292.992</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>483412</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>514492.992</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>500920.992</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>516961.984</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>489465.984</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>531796</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>519944</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1433,111 +1048,6 @@
       <c r="AQ4" t="n">
         <v>3</v>
       </c>
-      <c r="AR4" t="n">
-        <v>76254</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>85029</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>64468</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>54230</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>62403</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>71486</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>64089</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>78338</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>73846</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>73952</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>75740</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>74669</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>68747</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>67388</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>75526</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>64414</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>41263</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>46662</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>50754</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>62106</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>59291</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>67933</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>88166</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>87244</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>92318</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>92441</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>32420</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>45360</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>35026</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>68118</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>62929</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>43521</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>41396</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>94269</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>83047</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1671,111 +1181,6 @@
       <c r="AQ5" t="n">
         <v>25</v>
       </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>1896</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>1918</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>1943</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>1966</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>5518</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>8164</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>1784</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>1795</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>6909</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>6308</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>5168</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>5225</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>5248</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1909,111 +1314,6 @@
       <c r="AQ6" t="n">
         <v>35393</v>
       </c>
-      <c r="AR6" t="n">
-        <v>100871</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>107949</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>99211</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>114348</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>120088</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>117294</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>112823</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>116994</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>106428</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>112805</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>111944</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>128451</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>127322</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>128750</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>115793</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>151904</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>144979.008</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>139100</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>138228.992</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>160087.008</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>147704</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>115194</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>111343</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>142884.992</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>138731.008</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>133177</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>154060</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>167706</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>136454</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>136503.008</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>139740.992</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>171380.992</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>160230</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>170676</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>151220.992</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2147,111 +1447,6 @@
       <c r="AQ7" t="n">
         <v>16522</v>
       </c>
-      <c r="AR7" t="n">
-        <v>107856</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>108646</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>119785</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>120048</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>111345</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>113415</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>116999</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>110906</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>112848</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>115672</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>120473</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>120933</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>122521</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>122141</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>133472</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>142958</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>150046</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>146487.008</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>144484.992</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>129647</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>122263</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>147664</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>137978</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>130963</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>131608</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>162659.008</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>195023.008</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>193720.992</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>225396.992</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>234356</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>228304</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>235764</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>256851.008</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>232903.008</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>251951.008</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2385,111 +1580,6 @@
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2623,111 +1713,6 @@
       <c r="AQ9" t="n">
         <v>489</v>
       </c>
-      <c r="AR9" t="n">
-        <v>7055</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>8208</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>8988</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6542</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>6074</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6616</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>13663</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>9426</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>5879</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>5775</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>7400</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>5386</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>9318</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>9193</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>8853</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>7552</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>9016</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>9190</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>10062</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>7215</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>8029</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>8736</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>7538</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>9699</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>95421</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>90791</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>84959</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>81156</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>80212</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>73438</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>68351</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>63836</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>27545</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>31018</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>31463</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2861,111 +1846,6 @@
       <c r="AQ10" t="n">
         <v>5</v>
       </c>
-      <c r="AR10" t="n">
-        <v>339</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>1020</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>771</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>1093</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>1180</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>1719</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>1116</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>1273</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>557</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>1483</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>947</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>1194</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>537</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>1521</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>1152</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>1274</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>2472</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>1618</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>2195</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>1398</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>2498</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>1724</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>1547</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>1502</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>2465</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>1669</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>1627</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>2125</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>1075</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>2078</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>1596</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>2460</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>3444</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>2930</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>2262</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3099,111 +1979,6 @@
       <c r="AQ11" t="n">
         <v>0</v>
       </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3337,111 +2112,6 @@
       <c r="AQ12" t="n">
         <v>609</v>
       </c>
-      <c r="AR12" t="n">
-        <v>15841</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>15283</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>16067</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>16538</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>14312</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>14186</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>13344</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>10515</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>10439</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>10723</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>10797</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>10982</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>9088</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>9377</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>9328</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>9158</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>9166</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>9269</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>11336</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>11719</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>35569</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>32168</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>33436</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>33635</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>39090</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>37747</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>37578</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>38263</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>37822</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>39603</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>40374</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>40182</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>70244</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>44091</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>36513</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3575,111 +2245,6 @@
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3813,111 +2378,6 @@
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4051,111 +2511,6 @@
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4289,111 +2644,6 @@
       <c r="AQ16" t="n">
         <v>0</v>
       </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>3069</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4527,111 +2777,6 @@
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4765,111 +2910,6 @@
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
-      <c r="AR18" t="n">
-        <v>7530</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>7118</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>6929</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>6822</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>4933</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4859</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>4461</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>4194</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>4077</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>4189</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>4284</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>4645</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>3928</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>4129</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5003,111 +3043,6 @@
       <c r="AQ19" t="n">
         <v>26</v>
       </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>4092</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>3925</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>3822</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>3985</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>4665</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>5043</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>30334</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>26810</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>27965</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>28164</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>26621</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>25138</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>24976</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>24335</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>23374</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>23467</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>24073</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>24094</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>19247</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>19112</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>18370</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5241,111 +3176,6 @@
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5479,111 +3309,6 @@
       <c r="AQ21" t="n">
         <v>583</v>
       </c>
-      <c r="AR21" t="n">
-        <v>8311</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>8165</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>9138</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>9716</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>9379</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>9327</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>8883</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>6321</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>6362</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>6534</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>6513</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>6337</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>5160</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>5248</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5717,111 +3442,6 @@
       <c r="AQ22" t="n">
         <v>6805</v>
       </c>
-      <c r="AR22" t="n">
-        <v>53</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>53</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>53</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>53</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>53</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>53</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>53</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>53</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>53</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>53</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5955,111 +3575,6 @@
       <c r="AQ23" t="n">
         <v>106319</v>
       </c>
-      <c r="AR23" t="n">
-        <v>314083.008</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>315000</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>321457.984</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>326063.008</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>326569.984</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>326350.016</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>327908</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>330030.016</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>329996</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>329724.992</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>332271.008</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>332564</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>333367.008</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>338836.992</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>346188.992</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>363172.992</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>364831.008</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>362393.984</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>360292.992</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>361081.984</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>359668</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>359100.992</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>357759.008</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>357051.008</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>361388</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>368931.008</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>370639.008</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>389006.016</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>401116.992</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>407880</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>406723.008</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>406020</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>404737.984</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>400840</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>397795.008</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6193,111 +3708,6 @@
       <c r="AQ24" t="n">
         <v>17961</v>
       </c>
-      <c r="AR24" t="n">
-        <v>2138</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>2187</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2199</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>2323</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>2226</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>2057</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>1886</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>1817</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>1778</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>1808</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>1821</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>1816</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>1964</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>1930</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>1952</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>1916</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>1928</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>1766</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>1640</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>1575</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>1518</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>1453</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>1301</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>1154</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>1089</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>1133</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>1077</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>1091</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>1018</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>962</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>2870</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>4097</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>5957</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>7682</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>9141</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6431,111 +3841,6 @@
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6669,111 +3974,6 @@
       <c r="AQ26" t="n">
         <v>184131.008</v>
       </c>
-      <c r="AR26" t="n">
-        <v>624489.9840000001</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>643374.976</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>633000</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>641238.0159999999</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>644251.008</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>653176</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>651881.024</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>659352</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>641824</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>651996.032</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>661446.0159999999</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>676048</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>672916.992</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>679190.0159999999</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>692318.0159999999</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>742401.9840000001</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>725649.9840000001</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>718457.024</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>720990.0159999999</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>736848</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>742110.976</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>742190.0159999999</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>740905.024</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>765980.992</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>869072</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>894908.992</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>882604.032</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>923705.9840000001</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>923422.0159999999</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>962990.976</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>950940.992</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>967313.9840000001</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>970457.9840000001</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>984462.0159999999</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>963446.0159999999</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6907,111 +4107,6 @@
       <c r="AQ27" t="n">
         <v>159676.992</v>
       </c>
-      <c r="AR27" t="n">
-        <v>59326</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>65099</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>51143</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>50561</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>58431</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>65407</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>61075</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>61840</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>39973</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>44978</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>46334</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>51466</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>51158</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>46196</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>51399</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>65135</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>57064</v>
-      </c>
-      <c r="BI27" t="n">
-        <v>48382</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>54773</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>65098</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>52178</v>
-      </c>
-      <c r="BM27" t="n">
-        <v>52282</v>
-      </c>
-      <c r="BN27" t="n">
-        <v>59364</v>
-      </c>
-      <c r="BO27" t="n">
-        <v>64162</v>
-      </c>
-      <c r="BP27" t="n">
-        <v>89146</v>
-      </c>
-      <c r="BQ27" t="n">
-        <v>102333</v>
-      </c>
-      <c r="BR27" t="n">
-        <v>88886</v>
-      </c>
-      <c r="BS27" t="n">
-        <v>109302</v>
-      </c>
-      <c r="BT27" t="n">
-        <v>111886</v>
-      </c>
-      <c r="BU27" t="n">
-        <v>95753</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>85993</v>
-      </c>
-      <c r="BW27" t="n">
-        <v>101713</v>
-      </c>
-      <c r="BX27" t="n">
-        <v>67554</v>
-      </c>
-      <c r="BY27" t="n">
-        <v>80150</v>
-      </c>
-      <c r="BZ27" t="n">
-        <v>73911</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7145,111 +4240,6 @@
       <c r="AQ28" t="n">
         <v>57687</v>
       </c>
-      <c r="AR28" t="n">
-        <v>14310</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>11838</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>14767</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>16424</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>12850</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>11266</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>15024</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>18459</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>11752</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>11844</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>15036</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>18730</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>15194</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>14395</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>16356</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>19970</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>16421</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>13419</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>15988</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>19691</v>
-      </c>
-      <c r="BL28" t="n">
-        <v>13836</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>11916</v>
-      </c>
-      <c r="BN28" t="n">
-        <v>16243</v>
-      </c>
-      <c r="BO28" t="n">
-        <v>19620</v>
-      </c>
-      <c r="BP28" t="n">
-        <v>22845</v>
-      </c>
-      <c r="BQ28" t="n">
-        <v>17160</v>
-      </c>
-      <c r="BR28" t="n">
-        <v>21109</v>
-      </c>
-      <c r="BS28" t="n">
-        <v>24742</v>
-      </c>
-      <c r="BT28" t="n">
-        <v>25375</v>
-      </c>
-      <c r="BU28" t="n">
-        <v>19090</v>
-      </c>
-      <c r="BV28" t="n">
-        <v>21190</v>
-      </c>
-      <c r="BW28" t="n">
-        <v>24515</v>
-      </c>
-      <c r="BX28" t="n">
-        <v>14305</v>
-      </c>
-      <c r="BY28" t="n">
-        <v>17659</v>
-      </c>
-      <c r="BZ28" t="n">
-        <v>22192</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7383,111 +4373,6 @@
       <c r="AQ29" t="n">
         <v>14865</v>
       </c>
-      <c r="AR29" t="n">
-        <v>11343</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>17725</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>16077</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>17268</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>10617</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>17999</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>15229</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>18704</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>11074</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>17601</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>17434</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>17253</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>10739</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>15651</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>16863</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>17222</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>8711</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>11624</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>14005</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>17422</v>
-      </c>
-      <c r="BL29" t="n">
-        <v>10396</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>16164</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>14182</v>
-      </c>
-      <c r="BO29" t="n">
-        <v>22033</v>
-      </c>
-      <c r="BP29" t="n">
-        <v>18941</v>
-      </c>
-      <c r="BQ29" t="n">
-        <v>30955</v>
-      </c>
-      <c r="BR29" t="n">
-        <v>24829</v>
-      </c>
-      <c r="BS29" t="n">
-        <v>24414</v>
-      </c>
-      <c r="BT29" t="n">
-        <v>22260</v>
-      </c>
-      <c r="BU29" t="n">
-        <v>19083</v>
-      </c>
-      <c r="BV29" t="n">
-        <v>20383</v>
-      </c>
-      <c r="BW29" t="n">
-        <v>26923</v>
-      </c>
-      <c r="BX29" t="n">
-        <v>15697</v>
-      </c>
-      <c r="BY29" t="n">
-        <v>27563</v>
-      </c>
-      <c r="BZ29" t="n">
-        <v>30899</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7621,111 +4506,6 @@
       <c r="AQ30" t="n">
         <v>34517</v>
       </c>
-      <c r="AR30" t="n">
-        <v>5029</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>5126</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2726</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>2859</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>3577</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>3097</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>4627</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>4781</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>3496</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>4518</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>4539</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>6437</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>5584</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>5264</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>3550</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>10139</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>6450</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>4724</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>3907</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>5041</v>
-      </c>
-      <c r="BL30" t="n">
-        <v>5293</v>
-      </c>
-      <c r="BM30" t="n">
-        <v>2406</v>
-      </c>
-      <c r="BN30" t="n">
-        <v>5441</v>
-      </c>
-      <c r="BO30" t="n">
-        <v>5785</v>
-      </c>
-      <c r="BP30" t="n">
-        <v>9059</v>
-      </c>
-      <c r="BQ30" t="n">
-        <v>7048</v>
-      </c>
-      <c r="BR30" t="n">
-        <v>6015</v>
-      </c>
-      <c r="BS30" t="n">
-        <v>10573</v>
-      </c>
-      <c r="BT30" t="n">
-        <v>3548</v>
-      </c>
-      <c r="BU30" t="n">
-        <v>4228</v>
-      </c>
-      <c r="BV30" t="n">
-        <v>6324</v>
-      </c>
-      <c r="BW30" t="n">
-        <v>7205</v>
-      </c>
-      <c r="BX30" t="n">
-        <v>8139</v>
-      </c>
-      <c r="BY30" t="n">
-        <v>7846</v>
-      </c>
-      <c r="BZ30" t="n">
-        <v>5031</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7859,111 +4639,6 @@
       <c r="AQ31" t="n">
         <v>36623</v>
       </c>
-      <c r="AR31" t="n">
-        <v>12992</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>15018</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>10647</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>7140</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>19675</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>19617</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>16551</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>11824</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>5931</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>3446</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>3276</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>3223</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>4545</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>5128</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>9487</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>12436</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>8025</v>
-      </c>
-      <c r="BI31" t="n">
-        <v>11669</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>15132</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>16493</v>
-      </c>
-      <c r="BL31" t="n">
-        <v>7293</v>
-      </c>
-      <c r="BM31" t="n">
-        <v>8572</v>
-      </c>
-      <c r="BN31" t="n">
-        <v>8413</v>
-      </c>
-      <c r="BO31" t="n">
-        <v>8859</v>
-      </c>
-      <c r="BP31" t="n">
-        <v>10038</v>
-      </c>
-      <c r="BQ31" t="n">
-        <v>17648</v>
-      </c>
-      <c r="BR31" t="n">
-        <v>22519</v>
-      </c>
-      <c r="BS31" t="n">
-        <v>28029</v>
-      </c>
-      <c r="BT31" t="n">
-        <v>32791</v>
-      </c>
-      <c r="BU31" t="n">
-        <v>25375</v>
-      </c>
-      <c r="BV31" t="n">
-        <v>30414</v>
-      </c>
-      <c r="BW31" t="n">
-        <v>34074</v>
-      </c>
-      <c r="BX31" t="n">
-        <v>22094</v>
-      </c>
-      <c r="BY31" t="n">
-        <v>18435</v>
-      </c>
-      <c r="BZ31" t="n">
-        <v>8550</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8097,111 +4772,6 @@
       <c r="AQ32" t="n">
         <v>0</v>
       </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO32" t="n">
-        <v>349</v>
-      </c>
-      <c r="BP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8335,111 +4905,6 @@
       <c r="AQ33" t="n">
         <v>13</v>
       </c>
-      <c r="AR33" t="n">
-        <v>9656</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>9657</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>47</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>47</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>4863</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>4863</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>54</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>54</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>42</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>42</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>39</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>31</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>9633</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>58</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>41</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>40</v>
-      </c>
-      <c r="BH33" t="n">
-        <v>10727</v>
-      </c>
-      <c r="BI33" t="n">
-        <v>92</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>88</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>84</v>
-      </c>
-      <c r="BL33" t="n">
-        <v>8132</v>
-      </c>
-      <c r="BM33" t="n">
-        <v>8124</v>
-      </c>
-      <c r="BN33" t="n">
-        <v>8124</v>
-      </c>
-      <c r="BO33" t="n">
-        <v>41</v>
-      </c>
-      <c r="BP33" t="n">
-        <v>20367</v>
-      </c>
-      <c r="BQ33" t="n">
-        <v>20367</v>
-      </c>
-      <c r="BR33" t="n">
-        <v>5265</v>
-      </c>
-      <c r="BS33" t="n">
-        <v>11005</v>
-      </c>
-      <c r="BT33" t="n">
-        <v>20336</v>
-      </c>
-      <c r="BU33" t="n">
-        <v>20336</v>
-      </c>
-      <c r="BV33" t="n">
-        <v>37</v>
-      </c>
-      <c r="BW33" t="n">
-        <v>63</v>
-      </c>
-      <c r="BX33" t="n">
-        <v>63</v>
-      </c>
-      <c r="BY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ33" t="n">
-        <v>63</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8573,111 +5038,6 @@
       <c r="AQ34" t="n">
         <v>15972</v>
       </c>
-      <c r="AR34" t="n">
-        <v>5996</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>5735</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>6879</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>6823</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>6849</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>8565</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>9590</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>8018</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>7678</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>7527</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>6010</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>5792</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>5463</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>5700</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>5102</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>5328</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>6730</v>
-      </c>
-      <c r="BI34" t="n">
-        <v>6854</v>
-      </c>
-      <c r="BJ34" t="n">
-        <v>5653</v>
-      </c>
-      <c r="BK34" t="n">
-        <v>6367</v>
-      </c>
-      <c r="BL34" t="n">
-        <v>7228</v>
-      </c>
-      <c r="BM34" t="n">
-        <v>5100</v>
-      </c>
-      <c r="BN34" t="n">
-        <v>6961</v>
-      </c>
-      <c r="BO34" t="n">
-        <v>7475</v>
-      </c>
-      <c r="BP34" t="n">
-        <v>7896</v>
-      </c>
-      <c r="BQ34" t="n">
-        <v>9155</v>
-      </c>
-      <c r="BR34" t="n">
-        <v>9149</v>
-      </c>
-      <c r="BS34" t="n">
-        <v>10539</v>
-      </c>
-      <c r="BT34" t="n">
-        <v>7576</v>
-      </c>
-      <c r="BU34" t="n">
-        <v>7641</v>
-      </c>
-      <c r="BV34" t="n">
-        <v>7645</v>
-      </c>
-      <c r="BW34" t="n">
-        <v>8933</v>
-      </c>
-      <c r="BX34" t="n">
-        <v>7256</v>
-      </c>
-      <c r="BY34" t="n">
-        <v>8647</v>
-      </c>
-      <c r="BZ34" t="n">
-        <v>7176</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8811,111 +5171,6 @@
       <c r="AQ35" t="n">
         <v>0</v>
       </c>
-      <c r="AR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9049,111 +5304,6 @@
       <c r="AQ36" t="n">
         <v>0</v>
       </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9287,111 +5437,6 @@
       <c r="AQ37" t="n">
         <v>31441</v>
       </c>
-      <c r="AR37" t="n">
-        <v>94081</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>95557</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>94039</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>93340</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>92173</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>92345</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>91835</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>91214</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>90781</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>90104</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>91459</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>90922</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>87748</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>89402</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>90077</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>100231</v>
-      </c>
-      <c r="BH37" t="n">
-        <v>97593</v>
-      </c>
-      <c r="BI37" t="n">
-        <v>96335</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>94820</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>96440</v>
-      </c>
-      <c r="BL37" t="n">
-        <v>95368</v>
-      </c>
-      <c r="BM37" t="n">
-        <v>97997</v>
-      </c>
-      <c r="BN37" t="n">
-        <v>98772</v>
-      </c>
-      <c r="BO37" t="n">
-        <v>98978</v>
-      </c>
-      <c r="BP37" t="n">
-        <v>124421</v>
-      </c>
-      <c r="BQ37" t="n">
-        <v>120791</v>
-      </c>
-      <c r="BR37" t="n">
-        <v>113391</v>
-      </c>
-      <c r="BS37" t="n">
-        <v>112167</v>
-      </c>
-      <c r="BT37" t="n">
-        <v>106770</v>
-      </c>
-      <c r="BU37" t="n">
-        <v>155366</v>
-      </c>
-      <c r="BV37" t="n">
-        <v>156452</v>
-      </c>
-      <c r="BW37" t="n">
-        <v>156960</v>
-      </c>
-      <c r="BX37" t="n">
-        <v>194656</v>
-      </c>
-      <c r="BY37" t="n">
-        <v>192276.992</v>
-      </c>
-      <c r="BZ37" t="n">
-        <v>190431.008</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9525,111 +5570,6 @@
       <c r="AQ38" t="n">
         <v>13644</v>
       </c>
-      <c r="AR38" t="n">
-        <v>13183</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>14175</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>12551</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>11547</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>10290</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>10049</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>9502</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>9093</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>8668</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>8228</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>7776</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>7351</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>8920</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>10585</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>11192</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>21041</v>
-      </c>
-      <c r="BH38" t="n">
-        <v>18996</v>
-      </c>
-      <c r="BI38" t="n">
-        <v>17490</v>
-      </c>
-      <c r="BJ38" t="n">
-        <v>15761</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>17058</v>
-      </c>
-      <c r="BL38" t="n">
-        <v>15678</v>
-      </c>
-      <c r="BM38" t="n">
-        <v>16908</v>
-      </c>
-      <c r="BN38" t="n">
-        <v>16249</v>
-      </c>
-      <c r="BO38" t="n">
-        <v>14943</v>
-      </c>
-      <c r="BP38" t="n">
-        <v>35541</v>
-      </c>
-      <c r="BQ38" t="n">
-        <v>31085</v>
-      </c>
-      <c r="BR38" t="n">
-        <v>22287</v>
-      </c>
-      <c r="BS38" t="n">
-        <v>19592</v>
-      </c>
-      <c r="BT38" t="n">
-        <v>12131</v>
-      </c>
-      <c r="BU38" t="n">
-        <v>58746</v>
-      </c>
-      <c r="BV38" t="n">
-        <v>58980</v>
-      </c>
-      <c r="BW38" t="n">
-        <v>59153</v>
-      </c>
-      <c r="BX38" t="n">
-        <v>101958</v>
-      </c>
-      <c r="BY38" t="n">
-        <v>99996</v>
-      </c>
-      <c r="BZ38" t="n">
-        <v>98474</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9763,111 +5703,6 @@
       <c r="AQ39" t="n">
         <v>0</v>
       </c>
-      <c r="AR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10001,111 +5836,6 @@
       <c r="AQ40" t="n">
         <v>17797</v>
       </c>
-      <c r="AR40" t="n">
-        <v>6431</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>6235</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>6226</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>6155</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>5717</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>5598</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>5530</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>5293</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>5886</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>5604</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>7340</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>7147</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>2325</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>2325</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>2326</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>2558</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>1874</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>1874</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>1826</v>
-      </c>
-      <c r="BK40" t="n">
-        <v>1890</v>
-      </c>
-      <c r="BL40" t="n">
-        <v>1975</v>
-      </c>
-      <c r="BM40" t="n">
-        <v>3190</v>
-      </c>
-      <c r="BN40" t="n">
-        <v>4452</v>
-      </c>
-      <c r="BO40" t="n">
-        <v>5949</v>
-      </c>
-      <c r="BP40" t="n">
-        <v>870</v>
-      </c>
-      <c r="BQ40" t="n">
-        <v>870</v>
-      </c>
-      <c r="BR40" t="n">
-        <v>1419</v>
-      </c>
-      <c r="BS40" t="n">
-        <v>1685</v>
-      </c>
-      <c r="BT40" t="n">
-        <v>2072</v>
-      </c>
-      <c r="BU40" t="n">
-        <v>3497</v>
-      </c>
-      <c r="BV40" t="n">
-        <v>3455</v>
-      </c>
-      <c r="BW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX40" t="n">
-        <v>3441</v>
-      </c>
-      <c r="BY40" t="n">
-        <v>3067</v>
-      </c>
-      <c r="BZ40" t="n">
-        <v>2700</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10239,111 +5969,6 @@
       <c r="AQ41" t="n">
         <v>0</v>
       </c>
-      <c r="AR41" t="n">
-        <v>66384</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>67138</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>67836</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>68719</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>69508</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>70106</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>70786</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>71295</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>71125</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>71579</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>72039</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>72493</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>72928</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>73256</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>73644</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>74021</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>74397</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>74912</v>
-      </c>
-      <c r="BJ41" t="n">
-        <v>75424</v>
-      </c>
-      <c r="BK41" t="n">
-        <v>75915</v>
-      </c>
-      <c r="BL41" t="n">
-        <v>76352</v>
-      </c>
-      <c r="BM41" t="n">
-        <v>76731</v>
-      </c>
-      <c r="BN41" t="n">
-        <v>77085</v>
-      </c>
-      <c r="BO41" t="n">
-        <v>77266</v>
-      </c>
-      <c r="BP41" t="n">
-        <v>77246</v>
-      </c>
-      <c r="BQ41" t="n">
-        <v>77289</v>
-      </c>
-      <c r="BR41" t="n">
-        <v>77329</v>
-      </c>
-      <c r="BS41" t="n">
-        <v>77432</v>
-      </c>
-      <c r="BT41" t="n">
-        <v>82677</v>
-      </c>
-      <c r="BU41" t="n">
-        <v>82521</v>
-      </c>
-      <c r="BV41" t="n">
-        <v>82656</v>
-      </c>
-      <c r="BW41" t="n">
-        <v>82642</v>
-      </c>
-      <c r="BX41" t="n">
-        <v>82555</v>
-      </c>
-      <c r="BY41" t="n">
-        <v>82518</v>
-      </c>
-      <c r="BZ41" t="n">
-        <v>82474</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10477,111 +6102,6 @@
       <c r="AQ42" t="n">
         <v>0</v>
       </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10715,111 +6235,6 @@
       <c r="AQ43" t="n">
         <v>0</v>
       </c>
-      <c r="AR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP43" t="n">
-        <v>10096</v>
-      </c>
-      <c r="BQ43" t="n">
-        <v>11016</v>
-      </c>
-      <c r="BR43" t="n">
-        <v>11946</v>
-      </c>
-      <c r="BS43" t="n">
-        <v>13154</v>
-      </c>
-      <c r="BT43" t="n">
-        <v>9676</v>
-      </c>
-      <c r="BU43" t="n">
-        <v>10461</v>
-      </c>
-      <c r="BV43" t="n">
-        <v>11276</v>
-      </c>
-      <c r="BW43" t="n">
-        <v>15120</v>
-      </c>
-      <c r="BX43" t="n">
-        <v>6680</v>
-      </c>
-      <c r="BY43" t="n">
-        <v>6680</v>
-      </c>
-      <c r="BZ43" t="n">
-        <v>6771</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10953,111 +6368,6 @@
       <c r="AQ44" t="n">
         <v>0</v>
       </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11191,111 +6501,6 @@
       <c r="AQ45" t="n">
         <v>0</v>
       </c>
-      <c r="AR45" t="n">
-        <v>8083</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>8009</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>7426</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>6919</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>6658</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>6592</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>6017</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>5533</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>5102</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>4693</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>4304</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>3931</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>3575</v>
-      </c>
-      <c r="BE45" t="n">
-        <v>3236</v>
-      </c>
-      <c r="BF45" t="n">
-        <v>2915</v>
-      </c>
-      <c r="BG45" t="n">
-        <v>2611</v>
-      </c>
-      <c r="BH45" t="n">
-        <v>2326</v>
-      </c>
-      <c r="BI45" t="n">
-        <v>2059</v>
-      </c>
-      <c r="BJ45" t="n">
-        <v>1809</v>
-      </c>
-      <c r="BK45" t="n">
-        <v>1577</v>
-      </c>
-      <c r="BL45" t="n">
-        <v>1363</v>
-      </c>
-      <c r="BM45" t="n">
-        <v>1168</v>
-      </c>
-      <c r="BN45" t="n">
-        <v>986</v>
-      </c>
-      <c r="BO45" t="n">
-        <v>820</v>
-      </c>
-      <c r="BP45" t="n">
-        <v>668</v>
-      </c>
-      <c r="BQ45" t="n">
-        <v>531</v>
-      </c>
-      <c r="BR45" t="n">
-        <v>410</v>
-      </c>
-      <c r="BS45" t="n">
-        <v>304</v>
-      </c>
-      <c r="BT45" t="n">
-        <v>214</v>
-      </c>
-      <c r="BU45" t="n">
-        <v>141</v>
-      </c>
-      <c r="BV45" t="n">
-        <v>85</v>
-      </c>
-      <c r="BW45" t="n">
-        <v>45</v>
-      </c>
-      <c r="BX45" t="n">
-        <v>22</v>
-      </c>
-      <c r="BY45" t="n">
-        <v>16</v>
-      </c>
-      <c r="BZ45" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11429,111 +6634,6 @@
       <c r="AQ46" t="n">
         <v>0</v>
       </c>
-      <c r="AR46" t="n">
-        <v>183</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>185</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>189</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>198</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>181</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>182</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>184</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>196</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>185</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>190</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>197</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>206</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>202</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>207</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>213</v>
-      </c>
-      <c r="BG46" t="n">
-        <v>249</v>
-      </c>
-      <c r="BH46" t="n">
-        <v>181</v>
-      </c>
-      <c r="BI46" t="n">
-        <v>100</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11667,111 +6767,6 @@
       <c r="AQ47" t="n">
         <v>-6987</v>
       </c>
-      <c r="AR47" t="n">
-        <v>470900.008</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>482534.008</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>487628.984</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>497138.992</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>493466.008</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>495242</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>498787.008</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>506101.984</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>510885.016</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>516723.984</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>523455.992</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>533454</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>533809.008</v>
-      </c>
-      <c r="BE47" t="n">
-        <v>543385</v>
-      </c>
-      <c r="BF47" t="n">
-        <v>550628.9840000001</v>
-      </c>
-      <c r="BG47" t="n">
-        <v>576787.032</v>
-      </c>
-      <c r="BH47" t="n">
-        <v>570812.024</v>
-      </c>
-      <c r="BI47" t="n">
-        <v>573640.032</v>
-      </c>
-      <c r="BJ47" t="n">
-        <v>571396.992</v>
-      </c>
-      <c r="BK47" t="n">
-        <v>575310.0159999999</v>
-      </c>
-      <c r="BL47" t="n">
-        <v>594564.992</v>
-      </c>
-      <c r="BM47" t="n">
-        <v>591910.976</v>
-      </c>
-      <c r="BN47" t="n">
-        <v>582769.024</v>
-      </c>
-      <c r="BO47" t="n">
-        <v>602841.024</v>
-      </c>
-      <c r="BP47" t="n">
-        <v>655505.024</v>
-      </c>
-      <c r="BQ47" t="n">
-        <v>671785.024</v>
-      </c>
-      <c r="BR47" t="n">
-        <v>680326.976</v>
-      </c>
-      <c r="BS47" t="n">
-        <v>702236.992</v>
-      </c>
-      <c r="BT47" t="n">
-        <v>704766.0159999999</v>
-      </c>
-      <c r="BU47" t="n">
-        <v>711872</v>
-      </c>
-      <c r="BV47" t="n">
-        <v>708496</v>
-      </c>
-      <c r="BW47" t="n">
-        <v>708641.024</v>
-      </c>
-      <c r="BX47" t="n">
-        <v>708248</v>
-      </c>
-      <c r="BY47" t="n">
-        <v>712035.008</v>
-      </c>
-      <c r="BZ47" t="n">
-        <v>699104</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11905,111 +6900,6 @@
       <c r="AQ48" t="n">
         <v>45000</v>
       </c>
-      <c r="AR48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BD48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BE48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BF48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BG48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BH48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BI48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BJ48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BK48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BL48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BM48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BN48" t="n">
-        <v>180000</v>
-      </c>
-      <c r="BO48" t="n">
-        <v>225000</v>
-      </c>
-      <c r="BP48" t="n">
-        <v>225000</v>
-      </c>
-      <c r="BQ48" t="n">
-        <v>225000</v>
-      </c>
-      <c r="BR48" t="n">
-        <v>225000</v>
-      </c>
-      <c r="BS48" t="n">
-        <v>225000</v>
-      </c>
-      <c r="BT48" t="n">
-        <v>225000</v>
-      </c>
-      <c r="BU48" t="n">
-        <v>225000</v>
-      </c>
-      <c r="BV48" t="n">
-        <v>225000</v>
-      </c>
-      <c r="BW48" t="n">
-        <v>225000</v>
-      </c>
-      <c r="BX48" t="n">
-        <v>225000</v>
-      </c>
-      <c r="BY48" t="n">
-        <v>225000</v>
-      </c>
-      <c r="BZ48" t="n">
-        <v>320000</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12143,111 +7033,6 @@
       <c r="AQ49" t="n">
         <v>0</v>
       </c>
-      <c r="AR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ49" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12381,111 +7166,6 @@
       <c r="AQ50" t="n">
         <v>0</v>
       </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12619,111 +7299,6 @@
       <c r="AQ51" t="n">
         <v>5401</v>
       </c>
-      <c r="AR51" t="n">
-        <v>171454</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>175932</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>178936.992</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>183498</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>197295.008</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>200640.992</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>204427.008</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>209786</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>216007.008</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>220236</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>225335.008</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>230508</v>
-      </c>
-      <c r="BD51" t="n">
-        <v>242296</v>
-      </c>
-      <c r="BE51" t="n">
-        <v>247844.992</v>
-      </c>
-      <c r="BF51" t="n">
-        <v>251544.992</v>
-      </c>
-      <c r="BG51" t="n">
-        <v>257346</v>
-      </c>
-      <c r="BH51" t="n">
-        <v>284127.008</v>
-      </c>
-      <c r="BI51" t="n">
-        <v>289009.984</v>
-      </c>
-      <c r="BJ51" t="n">
-        <v>293529.984</v>
-      </c>
-      <c r="BK51" t="n">
-        <v>300204.992</v>
-      </c>
-      <c r="BL51" t="n">
-        <v>311503.008</v>
-      </c>
-      <c r="BM51" t="n">
-        <v>311503.008</v>
-      </c>
-      <c r="BN51" t="n">
-        <v>311503.008</v>
-      </c>
-      <c r="BO51" t="n">
-        <v>266503.008</v>
-      </c>
-      <c r="BP51" t="n">
-        <v>330199.008</v>
-      </c>
-      <c r="BQ51" t="n">
-        <v>330199.008</v>
-      </c>
-      <c r="BR51" t="n">
-        <v>330199.008</v>
-      </c>
-      <c r="BS51" t="n">
-        <v>330199.008</v>
-      </c>
-      <c r="BT51" t="n">
-        <v>389582.016</v>
-      </c>
-      <c r="BU51" t="n">
-        <v>389582.016</v>
-      </c>
-      <c r="BV51" t="n">
-        <v>389582.016</v>
-      </c>
-      <c r="BW51" t="n">
-        <v>389582.016</v>
-      </c>
-      <c r="BX51" t="n">
-        <v>396835.008</v>
-      </c>
-      <c r="BY51" t="n">
-        <v>396835.008</v>
-      </c>
-      <c r="BZ51" t="n">
-        <v>301835.008</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12857,111 +7432,6 @@
       <c r="AQ52" t="n">
         <v>-57388</v>
       </c>
-      <c r="AR52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>8250</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>10938</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>16860</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>-779</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>-1095</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>622</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>2391</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>4923</v>
-      </c>
-      <c r="BC52" t="n">
-        <v>10559</v>
-      </c>
-      <c r="BD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE52" t="n">
-        <v>5280</v>
-      </c>
-      <c r="BF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG52" t="n">
-        <v>31717</v>
-      </c>
-      <c r="BH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI52" t="n">
-        <v>-894</v>
-      </c>
-      <c r="BJ52" t="n">
-        <v>-6835</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>-8744</v>
-      </c>
-      <c r="BL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM52" t="n">
-        <v>-2343</v>
-      </c>
-      <c r="BN52" t="n">
-        <v>-10701</v>
-      </c>
-      <c r="BO52" t="n">
-        <v>10148</v>
-      </c>
-      <c r="BP52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ52" t="n">
-        <v>17035</v>
-      </c>
-      <c r="BR52" t="n">
-        <v>26328</v>
-      </c>
-      <c r="BS52" t="n">
-        <v>48987</v>
-      </c>
-      <c r="BT52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU52" t="n">
-        <v>8198</v>
-      </c>
-      <c r="BV52" t="n">
-        <v>5768</v>
-      </c>
-      <c r="BW52" t="n">
-        <v>6820</v>
-      </c>
-      <c r="BX52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY52" t="n">
-        <v>4588</v>
-      </c>
-      <c r="BZ52" t="n">
-        <v>-7510</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13095,111 +7565,6 @@
       <c r="AQ53" t="n">
         <v>0</v>
       </c>
-      <c r="AR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN53" t="n">
-        <v>101967</v>
-      </c>
-      <c r="BO53" t="n">
-        <v>101190</v>
-      </c>
-      <c r="BP53" t="n">
-        <v>100306</v>
-      </c>
-      <c r="BQ53" t="n">
-        <v>99551</v>
-      </c>
-      <c r="BR53" t="n">
-        <v>98800</v>
-      </c>
-      <c r="BS53" t="n">
-        <v>98051</v>
-      </c>
-      <c r="BT53" t="n">
-        <v>90184</v>
-      </c>
-      <c r="BU53" t="n">
-        <v>89092</v>
-      </c>
-      <c r="BV53" t="n">
-        <v>88146</v>
-      </c>
-      <c r="BW53" t="n">
-        <v>87239</v>
-      </c>
-      <c r="BX53" t="n">
-        <v>86413</v>
-      </c>
-      <c r="BY53" t="n">
-        <v>85612</v>
-      </c>
-      <c r="BZ53" t="n">
-        <v>84779</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13333,111 +7698,6 @@
       <c r="AQ54" t="n">
         <v>0</v>
       </c>
-      <c r="AR54" t="n">
-        <v>-95</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>-224</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>-203</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>-399</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>-392</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>-368</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>-291</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>-291</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>-298</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>-281</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>-312</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>-283</v>
-      </c>
-      <c r="BD54" t="n">
-        <v>-318</v>
-      </c>
-      <c r="BE54" t="n">
-        <v>-325</v>
-      </c>
-      <c r="BF54" t="n">
-        <v>-438</v>
-      </c>
-      <c r="BG54" t="n">
-        <v>-470</v>
-      </c>
-      <c r="BH54" t="n">
-        <v>-444</v>
-      </c>
-      <c r="BI54" t="n">
-        <v>-449</v>
-      </c>
-      <c r="BJ54" t="n">
-        <v>-432</v>
-      </c>
-      <c r="BK54" t="n">
-        <v>-520</v>
-      </c>
-      <c r="BL54" t="n">
-        <v>-486</v>
-      </c>
-      <c r="BM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13571,111 +7831,6 @@
       <c r="AQ55" t="n">
         <v>0</v>
       </c>
-      <c r="AR55" t="n">
-        <v>119541</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>118576</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>117957</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>117180</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>116563</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>115748</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>115746</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>115985</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>115176</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>114378</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>113510</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>112670</v>
-      </c>
-      <c r="BD55" t="n">
-        <v>111831</v>
-      </c>
-      <c r="BE55" t="n">
-        <v>110585</v>
-      </c>
-      <c r="BF55" t="n">
-        <v>119522</v>
-      </c>
-      <c r="BG55" t="n">
-        <v>108194</v>
-      </c>
-      <c r="BH55" t="n">
-        <v>107129</v>
-      </c>
-      <c r="BI55" t="n">
-        <v>105973</v>
-      </c>
-      <c r="BJ55" t="n">
-        <v>105134</v>
-      </c>
-      <c r="BK55" t="n">
-        <v>104369</v>
-      </c>
-      <c r="BL55" t="n">
-        <v>103548</v>
-      </c>
-      <c r="BM55" t="n">
-        <v>102751</v>
-      </c>
-      <c r="BN55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13809,111 +7964,6 @@
       <c r="AQ56" t="n">
         <v>0</v>
       </c>
-      <c r="AR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14047,41 +8097,6 @@
       <c r="AQ57" t="n">
         <v>0</v>
       </c>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
-      <c r="AT57" t="inlineStr"/>
-      <c r="AU57" t="inlineStr"/>
-      <c r="AV57" t="inlineStr"/>
-      <c r="AW57" t="inlineStr"/>
-      <c r="AX57" t="inlineStr"/>
-      <c r="AY57" t="inlineStr"/>
-      <c r="AZ57" t="inlineStr"/>
-      <c r="BA57" t="inlineStr"/>
-      <c r="BB57" t="inlineStr"/>
-      <c r="BC57" t="inlineStr"/>
-      <c r="BD57" t="inlineStr"/>
-      <c r="BE57" t="inlineStr"/>
-      <c r="BF57" t="inlineStr"/>
-      <c r="BG57" t="inlineStr"/>
-      <c r="BH57" t="inlineStr"/>
-      <c r="BI57" t="inlineStr"/>
-      <c r="BJ57" t="inlineStr"/>
-      <c r="BK57" t="inlineStr"/>
-      <c r="BL57" t="inlineStr"/>
-      <c r="BM57" t="inlineStr"/>
-      <c r="BN57" t="inlineStr"/>
-      <c r="BO57" t="inlineStr"/>
-      <c r="BP57" t="inlineStr"/>
-      <c r="BQ57" t="inlineStr"/>
-      <c r="BR57" t="inlineStr"/>
-      <c r="BS57" t="inlineStr"/>
-      <c r="BT57" t="inlineStr"/>
-      <c r="BU57" t="inlineStr"/>
-      <c r="BV57" t="inlineStr"/>
-      <c r="BW57" t="inlineStr"/>
-      <c r="BX57" t="inlineStr"/>
-      <c r="BY57" t="inlineStr"/>
-      <c r="BZ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14215,41 +8230,6 @@
       <c r="AQ58" t="n">
         <v>0</v>
       </c>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr"/>
-      <c r="AT58" t="inlineStr"/>
-      <c r="AU58" t="inlineStr"/>
-      <c r="AV58" t="inlineStr"/>
-      <c r="AW58" t="inlineStr"/>
-      <c r="AX58" t="inlineStr"/>
-      <c r="AY58" t="inlineStr"/>
-      <c r="AZ58" t="inlineStr"/>
-      <c r="BA58" t="inlineStr"/>
-      <c r="BB58" t="inlineStr"/>
-      <c r="BC58" t="inlineStr"/>
-      <c r="BD58" t="inlineStr"/>
-      <c r="BE58" t="inlineStr"/>
-      <c r="BF58" t="inlineStr"/>
-      <c r="BG58" t="inlineStr"/>
-      <c r="BH58" t="inlineStr"/>
-      <c r="BI58" t="inlineStr"/>
-      <c r="BJ58" t="inlineStr"/>
-      <c r="BK58" t="inlineStr"/>
-      <c r="BL58" t="inlineStr"/>
-      <c r="BM58" t="inlineStr"/>
-      <c r="BN58" t="inlineStr"/>
-      <c r="BO58" t="inlineStr"/>
-      <c r="BP58" t="inlineStr"/>
-      <c r="BQ58" t="inlineStr"/>
-      <c r="BR58" t="inlineStr"/>
-      <c r="BS58" t="inlineStr"/>
-      <c r="BT58" t="inlineStr"/>
-      <c r="BU58" t="inlineStr"/>
-      <c r="BV58" t="inlineStr"/>
-      <c r="BW58" t="inlineStr"/>
-      <c r="BX58" t="inlineStr"/>
-      <c r="BY58" t="inlineStr"/>
-      <c r="BZ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14383,111 +8363,6 @@
       <c r="AQ59" t="n">
         <v>17</v>
       </c>
-      <c r="AR59" t="n">
-        <v>98318</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>88470</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>103320</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>108156</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>101762</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>105649</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>110826</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>110935.992</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>108650</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>106430</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>124226</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>120706.992</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>120586</v>
-      </c>
-      <c r="BE59" t="n">
-        <v>105149</v>
-      </c>
-      <c r="BF59" t="n">
-        <v>130793</v>
-      </c>
-      <c r="BG59" t="n">
-        <v>124182.016</v>
-      </c>
-      <c r="BH59" t="n">
-        <v>119810</v>
-      </c>
-      <c r="BI59" t="n">
-        <v>113685</v>
-      </c>
-      <c r="BJ59" t="n">
-        <v>136652</v>
-      </c>
-      <c r="BK59" t="n">
-        <v>129397.992</v>
-      </c>
-      <c r="BL59" t="n">
-        <v>99006</v>
-      </c>
-      <c r="BM59" t="n">
-        <v>90507</v>
-      </c>
-      <c r="BN59" t="n">
-        <v>160332.992</v>
-      </c>
-      <c r="BO59" t="n">
-        <v>172007.008</v>
-      </c>
-      <c r="BP59" t="n">
-        <v>149724</v>
-      </c>
-      <c r="BQ59" t="n">
-        <v>169611.008</v>
-      </c>
-      <c r="BR59" t="n">
-        <v>194932</v>
-      </c>
-      <c r="BS59" t="n">
-        <v>160072.96</v>
-      </c>
-      <c r="BT59" t="n">
-        <v>154762</v>
-      </c>
-      <c r="BU59" t="n">
-        <v>149082</v>
-      </c>
-      <c r="BV59" t="n">
-        <v>176696.992</v>
-      </c>
-      <c r="BW59" t="n">
-        <v>155006.016</v>
-      </c>
-      <c r="BX59" t="n">
-        <v>170468.992</v>
-      </c>
-      <c r="BY59" t="n">
-        <v>153267.008</v>
-      </c>
-      <c r="BZ59" t="n">
-        <v>131793</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14621,111 +8496,6 @@
       <c r="AQ60" t="n">
         <v>-16416</v>
       </c>
-      <c r="AR60" t="n">
-        <v>-69337</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>-63466</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>-74227</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>-81066.992</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>-78723</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>-82541</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>-82284</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>-81839.008</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>-79076</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>-76995</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>-87513</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>-84776</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>-86619</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>-74449</v>
-      </c>
-      <c r="BF60" t="n">
-        <v>-93856</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>-90866.016</v>
-      </c>
-      <c r="BH60" t="n">
-        <v>-91098</v>
-      </c>
-      <c r="BI60" t="n">
-        <v>-90535</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>-103405</v>
-      </c>
-      <c r="BK60" t="n">
-        <v>-94136.016</v>
-      </c>
-      <c r="BL60" t="n">
-        <v>-72369</v>
-      </c>
-      <c r="BM60" t="n">
-        <v>-76129</v>
-      </c>
-      <c r="BN60" t="n">
-        <v>-109043</v>
-      </c>
-      <c r="BO60" t="n">
-        <v>-112574.008</v>
-      </c>
-      <c r="BP60" t="n">
-        <v>-100620</v>
-      </c>
-      <c r="BQ60" t="n">
-        <v>-119629</v>
-      </c>
-      <c r="BR60" t="n">
-        <v>-129081</v>
-      </c>
-      <c r="BS60" t="n">
-        <v>-120510.992</v>
-      </c>
-      <c r="BT60" t="n">
-        <v>-115527</v>
-      </c>
-      <c r="BU60" t="n">
-        <v>-118848</v>
-      </c>
-      <c r="BV60" t="n">
-        <v>-142498</v>
-      </c>
-      <c r="BW60" t="n">
-        <v>-124263</v>
-      </c>
-      <c r="BX60" t="n">
-        <v>-137714</v>
-      </c>
-      <c r="BY60" t="n">
-        <v>-129621</v>
-      </c>
-      <c r="BZ60" t="n">
-        <v>-101700</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14859,111 +8629,6 @@
       <c r="AQ61" t="n">
         <v>-16399</v>
       </c>
-      <c r="AR61" t="n">
-        <v>28981</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>25004</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>29093</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>27089</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>23039</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>23108</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>28542</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>29097</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>29574</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>29435</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>36713</v>
-      </c>
-      <c r="BC61" t="n">
-        <v>35931</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>33967</v>
-      </c>
-      <c r="BE61" t="n">
-        <v>30700</v>
-      </c>
-      <c r="BF61" t="n">
-        <v>36937</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>33316</v>
-      </c>
-      <c r="BH61" t="n">
-        <v>28712</v>
-      </c>
-      <c r="BI61" t="n">
-        <v>23150</v>
-      </c>
-      <c r="BJ61" t="n">
-        <v>33247</v>
-      </c>
-      <c r="BK61" t="n">
-        <v>35262</v>
-      </c>
-      <c r="BL61" t="n">
-        <v>26637</v>
-      </c>
-      <c r="BM61" t="n">
-        <v>14378</v>
-      </c>
-      <c r="BN61" t="n">
-        <v>51290</v>
-      </c>
-      <c r="BO61" t="n">
-        <v>59433</v>
-      </c>
-      <c r="BP61" t="n">
-        <v>49104</v>
-      </c>
-      <c r="BQ61" t="n">
-        <v>49982</v>
-      </c>
-      <c r="BR61" t="n">
-        <v>65851</v>
-      </c>
-      <c r="BS61" t="n">
-        <v>39562.008</v>
-      </c>
-      <c r="BT61" t="n">
-        <v>39235</v>
-      </c>
-      <c r="BU61" t="n">
-        <v>30234</v>
-      </c>
-      <c r="BV61" t="n">
-        <v>34199</v>
-      </c>
-      <c r="BW61" t="n">
-        <v>30743.008</v>
-      </c>
-      <c r="BX61" t="n">
-        <v>32755</v>
-      </c>
-      <c r="BY61" t="n">
-        <v>23646</v>
-      </c>
-      <c r="BZ61" t="n">
-        <v>30093</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15097,111 +8762,6 @@
       <c r="AQ62" t="n">
         <v>-258</v>
       </c>
-      <c r="AR62" t="n">
-        <v>-15336</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>-14333</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>-16371</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>-15971</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>-15343</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>-16522</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>-16539</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>-17158</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>-17986</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>-17038</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>-18568</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>-17688</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>-17154</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>-16468</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>-19028</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>-18133</v>
-      </c>
-      <c r="BH62" t="n">
-        <v>-18172</v>
-      </c>
-      <c r="BI62" t="n">
-        <v>-19077</v>
-      </c>
-      <c r="BJ62" t="n">
-        <v>-21417</v>
-      </c>
-      <c r="BK62" t="n">
-        <v>-21968</v>
-      </c>
-      <c r="BL62" t="n">
-        <v>-18329</v>
-      </c>
-      <c r="BM62" t="n">
-        <v>-15449</v>
-      </c>
-      <c r="BN62" t="n">
-        <v>-22936</v>
-      </c>
-      <c r="BO62" t="n">
-        <v>-22847</v>
-      </c>
-      <c r="BP62" t="n">
-        <v>-21044</v>
-      </c>
-      <c r="BQ62" t="n">
-        <v>-22540</v>
-      </c>
-      <c r="BR62" t="n">
-        <v>-27193</v>
-      </c>
-      <c r="BS62" t="n">
-        <v>-23935</v>
-      </c>
-      <c r="BT62" t="n">
-        <v>-20994</v>
-      </c>
-      <c r="BU62" t="n">
-        <v>-24177</v>
-      </c>
-      <c r="BV62" t="n">
-        <v>-26047</v>
-      </c>
-      <c r="BW62" t="n">
-        <v>-22148</v>
-      </c>
-      <c r="BX62" t="n">
-        <v>-23726</v>
-      </c>
-      <c r="BY62" t="n">
-        <v>-23857</v>
-      </c>
-      <c r="BZ62" t="n">
-        <v>-20239</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15335,111 +8895,6 @@
       <c r="AQ63" t="n">
         <v>-1627</v>
       </c>
-      <c r="AR63" t="n">
-        <v>-5756</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-6542</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-6218</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-6356</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>-6176</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>-6916</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>-6423</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>-6993</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>-6711</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>-7110</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>-7420</v>
-      </c>
-      <c r="BC63" t="n">
-        <v>-8704</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>-6176</v>
-      </c>
-      <c r="BE63" t="n">
-        <v>-6768</v>
-      </c>
-      <c r="BF63" t="n">
-        <v>-9531</v>
-      </c>
-      <c r="BG63" t="n">
-        <v>-7678</v>
-      </c>
-      <c r="BH63" t="n">
-        <v>-7501</v>
-      </c>
-      <c r="BI63" t="n">
-        <v>-7344</v>
-      </c>
-      <c r="BJ63" t="n">
-        <v>-7373</v>
-      </c>
-      <c r="BK63" t="n">
-        <v>-7160</v>
-      </c>
-      <c r="BL63" t="n">
-        <v>-7157</v>
-      </c>
-      <c r="BM63" t="n">
-        <v>-6416</v>
-      </c>
-      <c r="BN63" t="n">
-        <v>-7501</v>
-      </c>
-      <c r="BO63" t="n">
-        <v>-8874</v>
-      </c>
-      <c r="BP63" t="n">
-        <v>-7132</v>
-      </c>
-      <c r="BQ63" t="n">
-        <v>-8456</v>
-      </c>
-      <c r="BR63" t="n">
-        <v>-9921</v>
-      </c>
-      <c r="BS63" t="n">
-        <v>-8231</v>
-      </c>
-      <c r="BT63" t="n">
-        <v>-9717</v>
-      </c>
-      <c r="BU63" t="n">
-        <v>-9459</v>
-      </c>
-      <c r="BV63" t="n">
-        <v>-10457</v>
-      </c>
-      <c r="BW63" t="n">
-        <v>-11029</v>
-      </c>
-      <c r="BX63" t="n">
-        <v>-10053</v>
-      </c>
-      <c r="BY63" t="n">
-        <v>-11851</v>
-      </c>
-      <c r="BZ63" t="n">
-        <v>-9764</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15573,111 +9028,6 @@
       <c r="AQ64" t="n">
         <v>0</v>
       </c>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15811,111 +9161,6 @@
       <c r="AQ65" t="n">
         <v>17</v>
       </c>
-      <c r="AR65" t="n">
-        <v>4492</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>1846</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>3271</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>1091</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>2732</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>5681</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>5369</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>2376</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>918</v>
-      </c>
-      <c r="BA65" t="n">
-        <v>1324</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>986</v>
-      </c>
-      <c r="BC65" t="n">
-        <v>7616</v>
-      </c>
-      <c r="BD65" t="n">
-        <v>865</v>
-      </c>
-      <c r="BE65" t="n">
-        <v>507</v>
-      </c>
-      <c r="BF65" t="n">
-        <v>5344</v>
-      </c>
-      <c r="BG65" t="n">
-        <v>2004</v>
-      </c>
-      <c r="BH65" t="n">
-        <v>2240</v>
-      </c>
-      <c r="BI65" t="n">
-        <v>3443</v>
-      </c>
-      <c r="BJ65" t="n">
-        <v>1850</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>3028</v>
-      </c>
-      <c r="BL65" t="n">
-        <v>4046</v>
-      </c>
-      <c r="BM65" t="n">
-        <v>1760</v>
-      </c>
-      <c r="BN65" t="n">
-        <v>3683</v>
-      </c>
-      <c r="BO65" t="n">
-        <v>55845</v>
-      </c>
-      <c r="BP65" t="n">
-        <v>2024</v>
-      </c>
-      <c r="BQ65" t="n">
-        <v>1446</v>
-      </c>
-      <c r="BR65" t="n">
-        <v>4055</v>
-      </c>
-      <c r="BS65" t="n">
-        <v>16545</v>
-      </c>
-      <c r="BT65" t="n">
-        <v>845</v>
-      </c>
-      <c r="BU65" t="n">
-        <v>1565</v>
-      </c>
-      <c r="BV65" t="n">
-        <v>3848</v>
-      </c>
-      <c r="BW65" t="n">
-        <v>10551</v>
-      </c>
-      <c r="BX65" t="n">
-        <v>1497</v>
-      </c>
-      <c r="BY65" t="n">
-        <v>633</v>
-      </c>
-      <c r="BZ65" t="n">
-        <v>1128</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16049,111 +9294,6 @@
       <c r="AQ66" t="n">
         <v>0</v>
       </c>
-      <c r="AR66" t="n">
-        <v>-423</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>-454</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>-2512</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>-3512</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>-473</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>-513</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>-5429</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>-3556</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>-405</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>-862</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>-741</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>-6248</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>-864</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>-1098</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>-1999</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>-6695</v>
-      </c>
-      <c r="BH66" t="n">
-        <v>-2341</v>
-      </c>
-      <c r="BI66" t="n">
-        <v>-2202</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>-2369</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>-7623</v>
-      </c>
-      <c r="BL66" t="n">
-        <v>-4693</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>-3849</v>
-      </c>
-      <c r="BN66" t="n">
-        <v>-3293</v>
-      </c>
-      <c r="BO66" t="n">
-        <v>-26511</v>
-      </c>
-      <c r="BP66" t="n">
-        <v>-2243</v>
-      </c>
-      <c r="BQ66" t="n">
-        <v>-2235</v>
-      </c>
-      <c r="BR66" t="n">
-        <v>-2901</v>
-      </c>
-      <c r="BS66" t="n">
-        <v>-10364</v>
-      </c>
-      <c r="BT66" t="n">
-        <v>-2423</v>
-      </c>
-      <c r="BU66" t="n">
-        <v>-3408</v>
-      </c>
-      <c r="BV66" t="n">
-        <v>-3431</v>
-      </c>
-      <c r="BW66" t="n">
-        <v>-2536</v>
-      </c>
-      <c r="BX66" t="n">
-        <v>-2268</v>
-      </c>
-      <c r="BY66" t="n">
-        <v>-1171</v>
-      </c>
-      <c r="BZ66" t="n">
-        <v>-3084</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16287,111 +9427,6 @@
       <c r="AQ67" t="n">
         <v>0</v>
       </c>
-      <c r="AR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS67" t="n">
-        <v>1118</v>
-      </c>
-      <c r="BT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16525,111 +9560,6 @@
       <c r="AQ68" t="n">
         <v>-1460</v>
       </c>
-      <c r="AR68" t="n">
-        <v>3425</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>412</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>4481</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>534</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>-987</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>-898</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>1565</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>1361</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>1220</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>1910</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>543</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>1319</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>362</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>1980</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>24380</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>1297</v>
-      </c>
-      <c r="BH68" t="n">
-        <v>718</v>
-      </c>
-      <c r="BI68" t="n">
-        <v>159</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>769</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>254</v>
-      </c>
-      <c r="BL68" t="n">
-        <v>754</v>
-      </c>
-      <c r="BM68" t="n">
-        <v>34</v>
-      </c>
-      <c r="BN68" t="n">
-        <v>-665</v>
-      </c>
-      <c r="BO68" t="n">
-        <v>36638</v>
-      </c>
-      <c r="BP68" t="n">
-        <v>1032</v>
-      </c>
-      <c r="BQ68" t="n">
-        <v>-1731</v>
-      </c>
-      <c r="BR68" t="n">
-        <v>3742</v>
-      </c>
-      <c r="BS68" t="n">
-        <v>1755</v>
-      </c>
-      <c r="BT68" t="n">
-        <v>273</v>
-      </c>
-      <c r="BU68" t="n">
-        <v>1398</v>
-      </c>
-      <c r="BV68" t="n">
-        <v>1999</v>
-      </c>
-      <c r="BW68" t="n">
-        <v>-1215</v>
-      </c>
-      <c r="BX68" t="n">
-        <v>5680</v>
-      </c>
-      <c r="BY68" t="n">
-        <v>367</v>
-      </c>
-      <c r="BZ68" t="n">
-        <v>206</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16763,111 +9693,6 @@
       <c r="AQ69" t="n">
         <v>1817</v>
       </c>
-      <c r="AR69" t="n">
-        <v>5938</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>3923</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>7316</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>2925</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>3745</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>4313</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>3264</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>4212</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>3351</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>3278</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>2438</v>
-      </c>
-      <c r="BC69" t="n">
-        <v>2843</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>2426</v>
-      </c>
-      <c r="BE69" t="n">
-        <v>4303</v>
-      </c>
-      <c r="BF69" t="n">
-        <v>28697</v>
-      </c>
-      <c r="BG69" t="n">
-        <v>4682</v>
-      </c>
-      <c r="BH69" t="n">
-        <v>3491</v>
-      </c>
-      <c r="BI69" t="n">
-        <v>1377</v>
-      </c>
-      <c r="BJ69" t="n">
-        <v>4040</v>
-      </c>
-      <c r="BK69" t="n">
-        <v>4031</v>
-      </c>
-      <c r="BL69" t="n">
-        <v>6258</v>
-      </c>
-      <c r="BM69" t="n">
-        <v>3021</v>
-      </c>
-      <c r="BN69" t="n">
-        <v>3224</v>
-      </c>
-      <c r="BO69" t="n">
-        <v>40295</v>
-      </c>
-      <c r="BP69" t="n">
-        <v>3648</v>
-      </c>
-      <c r="BQ69" t="n">
-        <v>3483</v>
-      </c>
-      <c r="BR69" t="n">
-        <v>6960</v>
-      </c>
-      <c r="BS69" t="n">
-        <v>3941</v>
-      </c>
-      <c r="BT69" t="n">
-        <v>7127</v>
-      </c>
-      <c r="BU69" t="n">
-        <v>7839</v>
-      </c>
-      <c r="BV69" t="n">
-        <v>6925</v>
-      </c>
-      <c r="BW69" t="n">
-        <v>3907</v>
-      </c>
-      <c r="BX69" t="n">
-        <v>11558</v>
-      </c>
-      <c r="BY69" t="n">
-        <v>5414</v>
-      </c>
-      <c r="BZ69" t="n">
-        <v>3807</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17001,111 +9826,6 @@
       <c r="AQ70" t="n">
         <v>-3277</v>
       </c>
-      <c r="AR70" t="n">
-        <v>-2513</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>-3511</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>-2835</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>-2391</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>-4732</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>-5211</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>-1699</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>-2851</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>-2131</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>-1368</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>-1895</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>-1524</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>-2064</v>
-      </c>
-      <c r="BE70" t="n">
-        <v>-2323</v>
-      </c>
-      <c r="BF70" t="n">
-        <v>-4317</v>
-      </c>
-      <c r="BG70" t="n">
-        <v>-3385</v>
-      </c>
-      <c r="BH70" t="n">
-        <v>-2773</v>
-      </c>
-      <c r="BI70" t="n">
-        <v>-1218</v>
-      </c>
-      <c r="BJ70" t="n">
-        <v>-3271</v>
-      </c>
-      <c r="BK70" t="n">
-        <v>-3777</v>
-      </c>
-      <c r="BL70" t="n">
-        <v>-5504</v>
-      </c>
-      <c r="BM70" t="n">
-        <v>-2987</v>
-      </c>
-      <c r="BN70" t="n">
-        <v>-3889</v>
-      </c>
-      <c r="BO70" t="n">
-        <v>-3657</v>
-      </c>
-      <c r="BP70" t="n">
-        <v>-2616</v>
-      </c>
-      <c r="BQ70" t="n">
-        <v>-5214</v>
-      </c>
-      <c r="BR70" t="n">
-        <v>-3218</v>
-      </c>
-      <c r="BS70" t="n">
-        <v>-2186</v>
-      </c>
-      <c r="BT70" t="n">
-        <v>-6854</v>
-      </c>
-      <c r="BU70" t="n">
-        <v>-6441</v>
-      </c>
-      <c r="BV70" t="n">
-        <v>-4926</v>
-      </c>
-      <c r="BW70" t="n">
-        <v>-5122</v>
-      </c>
-      <c r="BX70" t="n">
-        <v>-5878</v>
-      </c>
-      <c r="BY70" t="n">
-        <v>-5047</v>
-      </c>
-      <c r="BZ70" t="n">
-        <v>-3601</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17239,41 +9959,6 @@
       <c r="AQ71" t="n">
         <v>0</v>
       </c>
-      <c r="AR71" t="inlineStr"/>
-      <c r="AS71" t="inlineStr"/>
-      <c r="AT71" t="inlineStr"/>
-      <c r="AU71" t="inlineStr"/>
-      <c r="AV71" t="inlineStr"/>
-      <c r="AW71" t="inlineStr"/>
-      <c r="AX71" t="inlineStr"/>
-      <c r="AY71" t="inlineStr"/>
-      <c r="AZ71" t="inlineStr"/>
-      <c r="BA71" t="inlineStr"/>
-      <c r="BB71" t="inlineStr"/>
-      <c r="BC71" t="inlineStr"/>
-      <c r="BD71" t="inlineStr"/>
-      <c r="BE71" t="inlineStr"/>
-      <c r="BF71" t="inlineStr"/>
-      <c r="BG71" t="inlineStr"/>
-      <c r="BH71" t="inlineStr"/>
-      <c r="BI71" t="inlineStr"/>
-      <c r="BJ71" t="inlineStr"/>
-      <c r="BK71" t="inlineStr"/>
-      <c r="BL71" t="inlineStr"/>
-      <c r="BM71" t="inlineStr"/>
-      <c r="BN71" t="inlineStr"/>
-      <c r="BO71" t="inlineStr"/>
-      <c r="BP71" t="inlineStr"/>
-      <c r="BQ71" t="inlineStr"/>
-      <c r="BR71" t="inlineStr"/>
-      <c r="BS71" t="inlineStr"/>
-      <c r="BT71" t="inlineStr"/>
-      <c r="BU71" t="inlineStr"/>
-      <c r="BV71" t="inlineStr"/>
-      <c r="BW71" t="inlineStr"/>
-      <c r="BX71" t="inlineStr"/>
-      <c r="BY71" t="inlineStr"/>
-      <c r="BZ71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17407,41 +10092,6 @@
       <c r="AQ72" t="n">
         <v>0</v>
       </c>
-      <c r="AR72" t="inlineStr"/>
-      <c r="AS72" t="inlineStr"/>
-      <c r="AT72" t="inlineStr"/>
-      <c r="AU72" t="inlineStr"/>
-      <c r="AV72" t="inlineStr"/>
-      <c r="AW72" t="inlineStr"/>
-      <c r="AX72" t="inlineStr"/>
-      <c r="AY72" t="inlineStr"/>
-      <c r="AZ72" t="inlineStr"/>
-      <c r="BA72" t="inlineStr"/>
-      <c r="BB72" t="inlineStr"/>
-      <c r="BC72" t="inlineStr"/>
-      <c r="BD72" t="inlineStr"/>
-      <c r="BE72" t="inlineStr"/>
-      <c r="BF72" t="inlineStr"/>
-      <c r="BG72" t="inlineStr"/>
-      <c r="BH72" t="inlineStr"/>
-      <c r="BI72" t="inlineStr"/>
-      <c r="BJ72" t="inlineStr"/>
-      <c r="BK72" t="inlineStr"/>
-      <c r="BL72" t="inlineStr"/>
-      <c r="BM72" t="inlineStr"/>
-      <c r="BN72" t="inlineStr"/>
-      <c r="BO72" t="inlineStr"/>
-      <c r="BP72" t="inlineStr"/>
-      <c r="BQ72" t="inlineStr"/>
-      <c r="BR72" t="inlineStr"/>
-      <c r="BS72" t="inlineStr"/>
-      <c r="BT72" t="inlineStr"/>
-      <c r="BU72" t="inlineStr"/>
-      <c r="BV72" t="inlineStr"/>
-      <c r="BW72" t="inlineStr"/>
-      <c r="BX72" t="inlineStr"/>
-      <c r="BY72" t="inlineStr"/>
-      <c r="BZ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17575,41 +10225,6 @@
       <c r="AQ73" t="n">
         <v>0</v>
       </c>
-      <c r="AR73" t="inlineStr"/>
-      <c r="AS73" t="inlineStr"/>
-      <c r="AT73" t="inlineStr"/>
-      <c r="AU73" t="inlineStr"/>
-      <c r="AV73" t="inlineStr"/>
-      <c r="AW73" t="inlineStr"/>
-      <c r="AX73" t="inlineStr"/>
-      <c r="AY73" t="inlineStr"/>
-      <c r="AZ73" t="inlineStr"/>
-      <c r="BA73" t="inlineStr"/>
-      <c r="BB73" t="inlineStr"/>
-      <c r="BC73" t="inlineStr"/>
-      <c r="BD73" t="inlineStr"/>
-      <c r="BE73" t="inlineStr"/>
-      <c r="BF73" t="inlineStr"/>
-      <c r="BG73" t="inlineStr"/>
-      <c r="BH73" t="inlineStr"/>
-      <c r="BI73" t="inlineStr"/>
-      <c r="BJ73" t="inlineStr"/>
-      <c r="BK73" t="inlineStr"/>
-      <c r="BL73" t="inlineStr"/>
-      <c r="BM73" t="inlineStr"/>
-      <c r="BN73" t="inlineStr"/>
-      <c r="BO73" t="inlineStr"/>
-      <c r="BP73" t="inlineStr"/>
-      <c r="BQ73" t="inlineStr"/>
-      <c r="BR73" t="inlineStr"/>
-      <c r="BS73" t="inlineStr"/>
-      <c r="BT73" t="inlineStr"/>
-      <c r="BU73" t="inlineStr"/>
-      <c r="BV73" t="inlineStr"/>
-      <c r="BW73" t="inlineStr"/>
-      <c r="BX73" t="inlineStr"/>
-      <c r="BY73" t="inlineStr"/>
-      <c r="BZ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17743,111 +10358,6 @@
       <c r="AQ74" t="n">
         <v>-19727</v>
       </c>
-      <c r="AR74" t="n">
-        <v>15383</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>5933</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>11744</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>2875</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>2792</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>3940</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>7085</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>5127</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>6610</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>7659</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>11513</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>12226</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>11000</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>8853</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>36103</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>4111</v>
-      </c>
-      <c r="BH74" t="n">
-        <v>3656</v>
-      </c>
-      <c r="BI74" t="n">
-        <v>-1871</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>4707</v>
-      </c>
-      <c r="BK74" t="n">
-        <v>1793</v>
-      </c>
-      <c r="BL74" t="n">
-        <v>1258</v>
-      </c>
-      <c r="BM74" t="n">
-        <v>-9542</v>
-      </c>
-      <c r="BN74" t="n">
-        <v>20578</v>
-      </c>
-      <c r="BO74" t="n">
-        <v>93684</v>
-      </c>
-      <c r="BP74" t="n">
-        <v>21741</v>
-      </c>
-      <c r="BQ74" t="n">
-        <v>16466</v>
-      </c>
-      <c r="BR74" t="n">
-        <v>33633</v>
-      </c>
-      <c r="BS74" t="n">
-        <v>16450</v>
-      </c>
-      <c r="BT74" t="n">
-        <v>7219</v>
-      </c>
-      <c r="BU74" t="n">
-        <v>-3847</v>
-      </c>
-      <c r="BV74" t="n">
-        <v>111</v>
-      </c>
-      <c r="BW74" t="n">
-        <v>4366</v>
-      </c>
-      <c r="BX74" t="n">
-        <v>3885</v>
-      </c>
-      <c r="BY74" t="n">
-        <v>-12233</v>
-      </c>
-      <c r="BZ74" t="n">
-        <v>-1660</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17981,111 +10491,6 @@
       <c r="AQ75" t="n">
         <v>0</v>
       </c>
-      <c r="AR75" t="n">
-        <v>-2252</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>-208</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>-1079</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>1481</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>-375</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>-414</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>-460</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>-396</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>-441</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>-525</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>-1441</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>517</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>-1286</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>-1064</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>-9334</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>2805</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>-469</v>
-      </c>
-      <c r="BI75" t="n">
-        <v>-559</v>
-      </c>
-      <c r="BJ75" t="n">
-        <v>-594</v>
-      </c>
-      <c r="BK75" t="n">
-        <v>-541</v>
-      </c>
-      <c r="BL75" t="n">
-        <v>-495</v>
-      </c>
-      <c r="BM75" t="n">
-        <v>-401</v>
-      </c>
-      <c r="BN75" t="n">
-        <v>-523</v>
-      </c>
-      <c r="BO75" t="n">
-        <v>-15936</v>
-      </c>
-      <c r="BP75" t="n">
-        <v>-3935</v>
-      </c>
-      <c r="BQ75" t="n">
-        <v>-1502</v>
-      </c>
-      <c r="BR75" t="n">
-        <v>-4291</v>
-      </c>
-      <c r="BS75" t="n">
-        <v>1617</v>
-      </c>
-      <c r="BT75" t="n">
-        <v>-362</v>
-      </c>
-      <c r="BU75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV75" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW75" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY75" t="n">
-        <v>-698</v>
-      </c>
-      <c r="BZ75" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -18219,111 +10624,6 @@
       <c r="AQ76" t="n">
         <v>0</v>
       </c>
-      <c r="AR76" t="n">
-        <v>-1207</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>-836</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>-982</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>-2627</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>-671</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>-862</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>-347</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>52</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>-342</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>-364</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>-94</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>-1152</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>-126</v>
-      </c>
-      <c r="BE76" t="n">
-        <v>-426</v>
-      </c>
-      <c r="BF76" t="n">
-        <v>-543</v>
-      </c>
-      <c r="BG76" t="n">
-        <v>-480</v>
-      </c>
-      <c r="BH76" t="n">
-        <v>-351</v>
-      </c>
-      <c r="BI76" t="n">
-        <v>167</v>
-      </c>
-      <c r="BJ76" t="n">
-        <v>-112</v>
-      </c>
-      <c r="BK76" t="n">
-        <v>26041</v>
-      </c>
-      <c r="BL76" t="n">
-        <v>-3903</v>
-      </c>
-      <c r="BM76" t="n">
-        <v>801</v>
-      </c>
-      <c r="BN76" t="n">
-        <v>17</v>
-      </c>
-      <c r="BO76" t="n">
-        <v>-1522</v>
-      </c>
-      <c r="BP76" t="n">
-        <v>-1526</v>
-      </c>
-      <c r="BQ76" t="n">
-        <v>-202</v>
-      </c>
-      <c r="BR76" t="n">
-        <v>-744</v>
-      </c>
-      <c r="BS76" t="n">
-        <v>-358</v>
-      </c>
-      <c r="BT76" t="n">
-        <v>249</v>
-      </c>
-      <c r="BU76" t="n">
-        <v>471</v>
-      </c>
-      <c r="BV76" t="n">
-        <v>35</v>
-      </c>
-      <c r="BW76" t="n">
-        <v>-4760</v>
-      </c>
-      <c r="BX76" t="n">
-        <v>-98</v>
-      </c>
-      <c r="BY76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ76" t="n">
-        <v>1868</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -18457,41 +10757,6 @@
       <c r="AQ77" t="n">
         <v>0</v>
       </c>
-      <c r="AR77" t="inlineStr"/>
-      <c r="AS77" t="inlineStr"/>
-      <c r="AT77" t="inlineStr"/>
-      <c r="AU77" t="inlineStr"/>
-      <c r="AV77" t="inlineStr"/>
-      <c r="AW77" t="inlineStr"/>
-      <c r="AX77" t="inlineStr"/>
-      <c r="AY77" t="inlineStr"/>
-      <c r="AZ77" t="inlineStr"/>
-      <c r="BA77" t="inlineStr"/>
-      <c r="BB77" t="inlineStr"/>
-      <c r="BC77" t="inlineStr"/>
-      <c r="BD77" t="inlineStr"/>
-      <c r="BE77" t="inlineStr"/>
-      <c r="BF77" t="inlineStr"/>
-      <c r="BG77" t="inlineStr"/>
-      <c r="BH77" t="inlineStr"/>
-      <c r="BI77" t="inlineStr"/>
-      <c r="BJ77" t="inlineStr"/>
-      <c r="BK77" t="inlineStr"/>
-      <c r="BL77" t="inlineStr"/>
-      <c r="BM77" t="inlineStr"/>
-      <c r="BN77" t="inlineStr"/>
-      <c r="BO77" t="inlineStr"/>
-      <c r="BP77" t="inlineStr"/>
-      <c r="BQ77" t="inlineStr"/>
-      <c r="BR77" t="inlineStr"/>
-      <c r="BS77" t="inlineStr"/>
-      <c r="BT77" t="inlineStr"/>
-      <c r="BU77" t="inlineStr"/>
-      <c r="BV77" t="inlineStr"/>
-      <c r="BW77" t="inlineStr"/>
-      <c r="BX77" t="inlineStr"/>
-      <c r="BY77" t="inlineStr"/>
-      <c r="BZ77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -18625,41 +10890,6 @@
       <c r="AQ78" t="n">
         <v>0</v>
       </c>
-      <c r="AR78" t="inlineStr"/>
-      <c r="AS78" t="inlineStr"/>
-      <c r="AT78" t="inlineStr"/>
-      <c r="AU78" t="inlineStr"/>
-      <c r="AV78" t="inlineStr"/>
-      <c r="AW78" t="inlineStr"/>
-      <c r="AX78" t="inlineStr"/>
-      <c r="AY78" t="inlineStr"/>
-      <c r="AZ78" t="inlineStr"/>
-      <c r="BA78" t="inlineStr"/>
-      <c r="BB78" t="inlineStr"/>
-      <c r="BC78" t="inlineStr"/>
-      <c r="BD78" t="inlineStr"/>
-      <c r="BE78" t="inlineStr"/>
-      <c r="BF78" t="inlineStr"/>
-      <c r="BG78" t="inlineStr"/>
-      <c r="BH78" t="inlineStr"/>
-      <c r="BI78" t="inlineStr"/>
-      <c r="BJ78" t="inlineStr"/>
-      <c r="BK78" t="inlineStr"/>
-      <c r="BL78" t="inlineStr"/>
-      <c r="BM78" t="inlineStr"/>
-      <c r="BN78" t="inlineStr"/>
-      <c r="BO78" t="inlineStr"/>
-      <c r="BP78" t="inlineStr"/>
-      <c r="BQ78" t="inlineStr"/>
-      <c r="BR78" t="inlineStr"/>
-      <c r="BS78" t="inlineStr"/>
-      <c r="BT78" t="inlineStr"/>
-      <c r="BU78" t="inlineStr"/>
-      <c r="BV78" t="inlineStr"/>
-      <c r="BW78" t="inlineStr"/>
-      <c r="BX78" t="inlineStr"/>
-      <c r="BY78" t="inlineStr"/>
-      <c r="BZ78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -18793,95 +11023,6 @@
       <c r="AQ79" t="n">
         <v>0</v>
       </c>
-      <c r="AR79" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>-5</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>-7</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>-9</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>-5</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>-6</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>-36</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH79" t="n">
-        <v>-3</v>
-      </c>
-      <c r="BI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK79" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS79" t="inlineStr"/>
-      <c r="BT79" t="inlineStr"/>
-      <c r="BU79" t="inlineStr"/>
-      <c r="BV79" t="inlineStr"/>
-      <c r="BW79" t="inlineStr"/>
-      <c r="BX79" t="inlineStr"/>
-      <c r="BY79" t="inlineStr"/>
-      <c r="BZ79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -19014,111 +11155,6 @@
       </c>
       <c r="AQ80" t="n">
         <v>-19727</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>11919</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>4885</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>9674</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>1727</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>1745</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>2662</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>6269</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>4781</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>5822</v>
-      </c>
-      <c r="BA80" t="n">
-        <v>6763</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>9969</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>11587</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>9583</v>
-      </c>
-      <c r="BE80" t="n">
-        <v>7357</v>
-      </c>
-      <c r="BF80" t="n">
-        <v>26190</v>
-      </c>
-      <c r="BG80" t="n">
-        <v>6441</v>
-      </c>
-      <c r="BH80" t="n">
-        <v>2833</v>
-      </c>
-      <c r="BI80" t="n">
-        <v>-2263</v>
-      </c>
-      <c r="BJ80" t="n">
-        <v>4001</v>
-      </c>
-      <c r="BK80" t="n">
-        <v>27296</v>
-      </c>
-      <c r="BL80" t="n">
-        <v>-3140</v>
-      </c>
-      <c r="BM80" t="n">
-        <v>-9142</v>
-      </c>
-      <c r="BN80" t="n">
-        <v>20072</v>
-      </c>
-      <c r="BO80" t="n">
-        <v>76226</v>
-      </c>
-      <c r="BP80" t="n">
-        <v>16280</v>
-      </c>
-      <c r="BQ80" t="n">
-        <v>14762</v>
-      </c>
-      <c r="BR80" t="n">
-        <v>28598</v>
-      </c>
-      <c r="BS80" t="n">
-        <v>17709</v>
-      </c>
-      <c r="BT80" t="n">
-        <v>7106</v>
-      </c>
-      <c r="BU80" t="n">
-        <v>-3376</v>
-      </c>
-      <c r="BV80" t="n">
-        <v>145</v>
-      </c>
-      <c r="BW80" t="n">
-        <v>-393</v>
-      </c>
-      <c r="BX80" t="n">
-        <v>3787</v>
-      </c>
-      <c r="BY80" t="n">
-        <v>-12931</v>
-      </c>
-      <c r="BZ80" t="n">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
